--- a/example/Builder/Tables/SoundTable.xlsx
+++ b/example/Builder/Tables/SoundTable.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Devwinsoft\devarc\example\Builder\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E436C55A-87D1-44D8-88BD-234EC5B9B02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248D02B2-4A65-41FB-9A88-FA8782FCE649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{84FD4B15-AE04-431D-A01B-7BE3057C75B0}"/>
+    <workbookView xWindow="3420" yWindow="1785" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{84FD4B15-AE04-431D-A01B-7BE3057C75B0}"/>
   </bookViews>
   <sheets>
     <sheet name="SOUND" sheetId="2" r:id="rId1"/>
+    <sheet name="SOUND@builtin" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -98,15 +99,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Default Volume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_SHOOT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOICE_DAMAGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_ATTACK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound/voice/damage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound/skill/attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound/skill/shoot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>bundle</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Is Bundle?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default Volume</t>
+    <t>Resource/Bundle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>display</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -506,107 +547,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401DA0E-6D94-4657-8FD9-3F778EFEE5A9}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2B1D51-3465-4341-8DCF-974BA4470843}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/example/Builder/Tables/SoundTable.xlsx
+++ b/example/Builder/Tables/SoundTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Devwinsoft\devarc\example\Builder\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Devwinsoft\devarc\src\Devarc.Builder\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248D02B2-4A65-41FB-9A88-FA8782FCE649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF878566-8028-4009-BCFE-B345B55F164A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1785" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{84FD4B15-AE04-431D-A01B-7BE3057C75B0}"/>
+    <workbookView xWindow="33375" yWindow="2235" windowWidth="21600" windowHeight="11295" xr2:uid="{84FD4B15-AE04-431D-A01B-7BE3057C75B0}"/>
   </bookViews>
   <sheets>
     <sheet name="SOUND" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -79,14 +79,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Sound/UI/click</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sound/BGM/intro</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>loop</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -115,18 +107,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Sound/voice/damage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sound/skill/attack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sound/skill/shoot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bundle</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -148,6 +128,10 @@
   </si>
   <si>
     <t>display</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sounds/snd_explosion</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -549,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401DA0E-6D94-4657-8FD9-3F778EFEE5A9}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -564,7 +548,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -576,15 +560,15 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -593,18 +577,18 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -616,7 +600,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -627,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -635,10 +619,10 @@
         <v>10001</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -655,10 +639,10 @@
         <v>10002</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -675,10 +659,10 @@
         <v>10003</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -700,14 +684,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2B1D51-3465-4341-8DCF-974BA4470843}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
@@ -715,7 +699,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -727,15 +711,15 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -744,18 +728,18 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -767,7 +751,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -778,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -789,7 +773,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -809,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
